--- a/Template/Шаблон для загрузки организаций в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки организаций в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levdansky_vd\source\repos\DirectumCompany\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Template/Шаблон для загрузки организаций в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки организаций в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levdansky_vd\source\repos\DirectumCompany\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +136,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -213,6 +219,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">

--- a/Template/Шаблон для загрузки организаций в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки организаций в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata-net-core-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Контрагенты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$V$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Наименование</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>Подробности</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +109,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -151,7 +148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -198,29 +195,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,225 +517,91 @@
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V7"/>
+  <autoFilter ref="A1:W1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
